--- a/downloads/Nest_Dictionary.xlsx
+++ b/downloads/Nest_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/Data_management/landbirds_project_maintenance/Reformatted_data/_Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_4916C2C939F85028353BBE1E6C4AAC10C4B91AED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466A0BEB-78C6-42E1-A190-AA4FDA902AEC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_4916C2C939F85028353BBE1E6C4AAC10C4B91AED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{867159B4-C1A2-42B7-9CBE-C0A9EE25C5C4}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="381">
   <si>
     <t>codeName</t>
   </si>
@@ -1511,27 +1511,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18:M19"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -1591,14 +1591,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1614,11 +1614,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1634,11 +1634,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1654,11 +1654,11 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1730,11 +1730,11 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1834,11 +1834,11 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1854,8 +1854,8 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1880,8 +1880,8 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -1906,11 +1906,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1926,11 +1926,11 @@
       <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -1946,11 +1946,11 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1966,11 +1966,11 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2000,11 +2000,11 @@
       <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2048,11 +2048,11 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -2124,11 +2124,11 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -2144,11 +2144,11 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -2164,14 +2164,14 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
+      <c r="F35" t="b">
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -2187,14 +2187,14 @@
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
-        <v>17</v>
+      <c r="F36" t="b">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -2210,11 +2210,11 @@
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2230,11 +2230,11 @@
       <c r="E38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -2250,11 +2250,11 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -2298,11 +2298,11 @@
       <c r="E42" t="s">
         <v>30</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -2318,11 +2318,11 @@
       <c r="E43" t="s">
         <v>53</v>
       </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2338,11 +2338,11 @@
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2414,11 +2414,11 @@
       <c r="E49" t="s">
         <v>53</v>
       </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -2434,11 +2434,11 @@
       <c r="E50" t="s">
         <v>53</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -2454,11 +2454,11 @@
       <c r="E51" t="s">
         <v>53</v>
       </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -2474,11 +2474,11 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -2508,11 +2508,11 @@
       <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -2542,11 +2542,11 @@
       <c r="E56" t="s">
         <v>53</v>
       </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -2562,11 +2562,11 @@
       <c r="E57" t="s">
         <v>53</v>
       </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2582,11 +2582,11 @@
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2602,11 +2602,11 @@
       <c r="E59" t="s">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -2692,11 +2692,11 @@
       <c r="E65" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>178</v>
       </c>
@@ -2726,11 +2726,11 @@
       <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>178</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>182</v>
       </c>
@@ -2760,11 +2760,11 @@
       <c r="E69" t="s">
         <v>53</v>
       </c>
-      <c r="F69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -2780,11 +2780,11 @@
       <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>184</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>184</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>184</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>196</v>
       </c>
@@ -2870,14 +2870,14 @@
       <c r="E76" t="s">
         <v>38</v>
       </c>
-      <c r="F76" t="s">
-        <v>17</v>
+      <c r="F76" t="b">
+        <v>1</v>
       </c>
       <c r="G76" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>199</v>
       </c>
@@ -2893,11 +2893,11 @@
       <c r="E77" t="s">
         <v>15</v>
       </c>
-      <c r="F77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -2913,14 +2913,14 @@
       <c r="E78" t="s">
         <v>38</v>
       </c>
-      <c r="F78" t="s">
-        <v>17</v>
+      <c r="F78" t="b">
+        <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -2936,11 +2936,11 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>219</v>
       </c>
@@ -3068,11 +3068,11 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -3130,14 +3130,14 @@
       <c r="E92" t="s">
         <v>38</v>
       </c>
-      <c r="F92" t="s">
-        <v>17</v>
+      <c r="F92" t="b">
+        <v>1</v>
       </c>
       <c r="G92" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -3153,14 +3153,14 @@
       <c r="E93" t="s">
         <v>38</v>
       </c>
-      <c r="F93" t="s">
-        <v>17</v>
+      <c r="F93" t="b">
+        <v>1</v>
       </c>
       <c r="G93" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>231</v>
       </c>
@@ -3176,14 +3176,14 @@
       <c r="E94" t="s">
         <v>38</v>
       </c>
-      <c r="F94" t="s">
-        <v>17</v>
+      <c r="F94" t="b">
+        <v>1</v>
       </c>
       <c r="G94" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -3199,14 +3199,14 @@
       <c r="E95" t="s">
         <v>38</v>
       </c>
-      <c r="F95" t="s">
-        <v>17</v>
+      <c r="F95" t="b">
+        <v>1</v>
       </c>
       <c r="G95" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -3222,14 +3222,14 @@
       <c r="E96" t="s">
         <v>38</v>
       </c>
-      <c r="F96" t="s">
-        <v>17</v>
+      <c r="F96" t="b">
+        <v>1</v>
       </c>
       <c r="G96" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>239</v>
       </c>
@@ -3245,11 +3245,11 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>239</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>239</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>241</v>
       </c>
@@ -3307,14 +3307,14 @@
       <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F101" t="s">
-        <v>17</v>
+      <c r="F101" t="b">
+        <v>1</v>
       </c>
       <c r="G101" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>243</v>
       </c>
@@ -3330,14 +3330,14 @@
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>17</v>
+      <c r="F102" t="b">
+        <v>1</v>
       </c>
       <c r="G102" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>245</v>
       </c>
@@ -3353,14 +3353,14 @@
       <c r="E103" t="s">
         <v>38</v>
       </c>
-      <c r="F103" t="s">
-        <v>17</v>
+      <c r="F103" t="b">
+        <v>1</v>
       </c>
       <c r="G103" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>247</v>
       </c>
@@ -3376,14 +3376,14 @@
       <c r="E104" t="s">
         <v>38</v>
       </c>
-      <c r="F104" t="s">
-        <v>17</v>
+      <c r="F104" t="b">
+        <v>1</v>
       </c>
       <c r="G104" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>249</v>
       </c>
@@ -3399,14 +3399,14 @@
       <c r="E105" t="s">
         <v>38</v>
       </c>
-      <c r="F105" t="s">
-        <v>17</v>
+      <c r="F105" t="b">
+        <v>1</v>
       </c>
       <c r="G105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -3422,11 +3422,11 @@
       <c r="E106" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>251</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>253</v>
       </c>
@@ -3484,14 +3484,14 @@
       <c r="E110" t="s">
         <v>38</v>
       </c>
-      <c r="F110" t="s">
-        <v>17</v>
+      <c r="F110" t="b">
+        <v>1</v>
       </c>
       <c r="G110" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -3507,14 +3507,14 @@
       <c r="E111" t="s">
         <v>38</v>
       </c>
-      <c r="F111" t="s">
-        <v>17</v>
+      <c r="F111" t="b">
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -3530,14 +3530,14 @@
       <c r="E112" t="s">
         <v>38</v>
       </c>
-      <c r="F112" t="s">
-        <v>17</v>
+      <c r="F112" t="b">
+        <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>259</v>
       </c>
@@ -3553,14 +3553,14 @@
       <c r="E113" t="s">
         <v>38</v>
       </c>
-      <c r="F113" t="s">
-        <v>17</v>
+      <c r="F113" t="b">
+        <v>1</v>
       </c>
       <c r="G113" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>261</v>
       </c>
@@ -3576,14 +3576,14 @@
       <c r="E114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>17</v>
+      <c r="F114" t="b">
+        <v>1</v>
       </c>
       <c r="G114" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -3599,11 +3599,11 @@
       <c r="E115" t="s">
         <v>15</v>
       </c>
-      <c r="F115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>263</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>263</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>265</v>
       </c>
@@ -3661,14 +3661,14 @@
       <c r="E119" t="s">
         <v>38</v>
       </c>
-      <c r="F119" t="s">
-        <v>17</v>
+      <c r="F119" t="b">
+        <v>1</v>
       </c>
       <c r="G119" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>267</v>
       </c>
@@ -3684,14 +3684,14 @@
       <c r="E120" t="s">
         <v>38</v>
       </c>
-      <c r="F120" t="s">
-        <v>17</v>
+      <c r="F120" t="b">
+        <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>269</v>
       </c>
@@ -3707,14 +3707,14 @@
       <c r="E121" t="s">
         <v>38</v>
       </c>
-      <c r="F121" t="s">
-        <v>17</v>
+      <c r="F121" t="b">
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>271</v>
       </c>
@@ -3730,14 +3730,14 @@
       <c r="E122" t="s">
         <v>38</v>
       </c>
-      <c r="F122" t="s">
-        <v>17</v>
+      <c r="F122" t="b">
+        <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>273</v>
       </c>
@@ -3753,14 +3753,14 @@
       <c r="E123" t="s">
         <v>38</v>
       </c>
-      <c r="F123" t="s">
-        <v>17</v>
+      <c r="F123" t="b">
+        <v>1</v>
       </c>
       <c r="G123" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -3776,11 +3776,11 @@
       <c r="E124" t="s">
         <v>42</v>
       </c>
-      <c r="F124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>277</v>
       </c>
@@ -3796,11 +3796,11 @@
       <c r="E125" t="s">
         <v>42</v>
       </c>
-      <c r="F125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>279</v>
       </c>
@@ -3816,8 +3816,8 @@
       <c r="E126" t="s">
         <v>38</v>
       </c>
-      <c r="F126" t="s">
-        <v>17</v>
+      <c r="F126" t="b">
+        <v>1</v>
       </c>
       <c r="G126" t="s">
         <v>198</v>
@@ -3826,7 +3826,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>282</v>
       </c>
@@ -3842,14 +3842,14 @@
       <c r="E127" t="s">
         <v>15</v>
       </c>
-      <c r="F127" t="s">
-        <v>17</v>
+      <c r="F127" t="b">
+        <v>1</v>
       </c>
       <c r="L127" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>282</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>282</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>282</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>282</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>282</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>293</v>
       </c>
@@ -3950,11 +3950,11 @@
       <c r="E133" t="s">
         <v>15</v>
       </c>
-      <c r="F133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>295</v>
       </c>
@@ -3970,11 +3970,11 @@
       <c r="E134" t="s">
         <v>15</v>
       </c>
-      <c r="F134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>295</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>295</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>295</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>304</v>
       </c>
@@ -4046,14 +4046,14 @@
       <c r="E139" t="s">
         <v>38</v>
       </c>
-      <c r="F139" t="s">
-        <v>17</v>
+      <c r="F139" t="b">
+        <v>1</v>
       </c>
       <c r="G139" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>307</v>
       </c>
@@ -4069,14 +4069,14 @@
       <c r="E140" t="s">
         <v>38</v>
       </c>
-      <c r="F140" t="s">
-        <v>17</v>
+      <c r="F140" t="b">
+        <v>1</v>
       </c>
       <c r="G140" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>309</v>
       </c>
@@ -4092,14 +4092,14 @@
       <c r="E141" t="s">
         <v>38</v>
       </c>
-      <c r="F141" t="s">
-        <v>17</v>
+      <c r="F141" t="b">
+        <v>1</v>
       </c>
       <c r="G141" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>311</v>
       </c>
@@ -4115,14 +4115,14 @@
       <c r="E142" t="s">
         <v>38</v>
       </c>
-      <c r="F142" t="s">
-        <v>17</v>
+      <c r="F142" t="b">
+        <v>1</v>
       </c>
       <c r="G142" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>313</v>
       </c>
@@ -4138,14 +4138,14 @@
       <c r="E143" t="s">
         <v>38</v>
       </c>
-      <c r="F143" t="s">
-        <v>17</v>
+      <c r="F143" t="b">
+        <v>1</v>
       </c>
       <c r="G143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>315</v>
       </c>
@@ -4161,11 +4161,11 @@
       <c r="E144" t="s">
         <v>15</v>
       </c>
-      <c r="F144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>315</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>315</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>315</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>315</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>326</v>
       </c>
@@ -4251,11 +4251,11 @@
       <c r="E150" t="s">
         <v>15</v>
       </c>
-      <c r="F150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>328</v>
       </c>
@@ -4271,14 +4271,14 @@
       <c r="E151" t="s">
         <v>38</v>
       </c>
-      <c r="F151" t="s">
-        <v>17</v>
+      <c r="F151" t="b">
+        <v>1</v>
       </c>
       <c r="G151" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>331</v>
       </c>
@@ -4294,11 +4294,11 @@
       <c r="E152" t="s">
         <v>15</v>
       </c>
-      <c r="F152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>331</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>331</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>337</v>
       </c>
@@ -4342,11 +4342,11 @@
       <c r="E155" t="s">
         <v>53</v>
       </c>
-      <c r="F155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>339</v>
       </c>
@@ -4362,11 +4362,11 @@
       <c r="E156" t="s">
         <v>53</v>
       </c>
-      <c r="F156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>341</v>
       </c>
@@ -4382,11 +4382,11 @@
       <c r="E157" t="s">
         <v>15</v>
       </c>
-      <c r="F157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>341</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>341</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>348</v>
       </c>
@@ -4444,11 +4444,11 @@
       <c r="E161" t="s">
         <v>15</v>
       </c>
-      <c r="F161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>348</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>348</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>348</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>355</v>
       </c>
@@ -4506,11 +4506,11 @@
       <c r="E165" t="s">
         <v>53</v>
       </c>
-      <c r="F165" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>357</v>
       </c>
@@ -4526,11 +4526,11 @@
       <c r="E166" t="s">
         <v>53</v>
       </c>
-      <c r="F166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>359</v>
       </c>
@@ -4546,11 +4546,11 @@
       <c r="E167" t="s">
         <v>15</v>
       </c>
-      <c r="F167" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>359</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>359</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>365</v>
       </c>
@@ -4594,11 +4594,11 @@
       <c r="E170" t="s">
         <v>30</v>
       </c>
-      <c r="F170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>367</v>
       </c>
@@ -4614,11 +4614,11 @@
       <c r="E171" t="s">
         <v>42</v>
       </c>
-      <c r="F171" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>369</v>
       </c>
@@ -4634,11 +4634,11 @@
       <c r="E172" t="s">
         <v>43</v>
       </c>
-      <c r="F172" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -4654,11 +4654,11 @@
       <c r="E173" t="s">
         <v>42</v>
       </c>
-      <c r="F173" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>373</v>
       </c>
@@ -4674,11 +4674,11 @@
       <c r="E174" t="s">
         <v>43</v>
       </c>
-      <c r="F174" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>375</v>
       </c>
@@ -4694,8 +4694,8 @@
       <c r="E175" t="s">
         <v>15</v>
       </c>
-      <c r="F175" t="s">
-        <v>17</v>
+      <c r="F175" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4745,9 +4745,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4763,202 +4763,202 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -4969,21 +4969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -5198,32 +5183,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5240,4 +5215,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>